--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-设备表.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-设备表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\git\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\kelly0917\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDB0F4D-0233-44CD-9FE8-7163F6E80FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734BEA4-98C0-48C2-95CB-80B3964D47C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1065" windowWidth="27150" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面 " sheetId="1" r:id="rId1"/>
@@ -21,33 +21,17 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">[1]eqpmad2!#REF!</definedName>
-    <definedName name="C_EN_ShortDesc" localSheetId="1">次页!$D$5</definedName>
-    <definedName name="COMPONENT_TYPE" localSheetId="0">#REF!</definedName>
-    <definedName name="COMPONENT_TYPE">#REF!</definedName>
-    <definedName name="DESCR">#REF!</definedName>
-    <definedName name="ENTETE">#REF!</definedName>
+    <definedName name="DesignQty">次页!$G$5</definedName>
+    <definedName name="DesQty">次页!$M$5</definedName>
     <definedName name="HWSheet">1</definedName>
-    <definedName name="LOOP">#REF!</definedName>
-    <definedName name="MTO_LINE_SECTION">#REF!</definedName>
     <definedName name="P_CN_ShortDesc" localSheetId="1">次页!$E$5</definedName>
-    <definedName name="P_CN_ShortDesc">次页!$N$5</definedName>
     <definedName name="P_Code" localSheetId="1">次页!$L$5</definedName>
     <definedName name="P_Seq" localSheetId="1">次页!$B$5</definedName>
-    <definedName name="PART_NO">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$B$2:$N$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'封面 '!$B$2:$S$28</definedName>
-    <definedName name="Print_Area_MI">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">次页!$2:$5</definedName>
-    <definedName name="QUAN" localSheetId="1">#REF!</definedName>
-    <definedName name="QUAN" localSheetId="0">#REF!</definedName>
-    <definedName name="QUAN">#REF!</definedName>
-    <definedName name="SEQ">#REF!</definedName>
-    <definedName name="SPEC">#REF!</definedName>
-    <definedName name="SPP">#REF!</definedName>
-    <definedName name="ss">#REF!</definedName>
     <definedName name="T_Desc" localSheetId="1">次页!$C$5</definedName>
     <definedName name="T_Unit" localSheetId="1">次页!$F$5</definedName>
-    <definedName name="UNIT_ID">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
@@ -363,7 +347,7 @@
     <numFmt numFmtId="205" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="206" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="119">
+  <fonts count="118">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -379,6 +363,7 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -389,6 +374,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -400,6 +386,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -425,6 +412,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -436,6 +424,7 @@
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1108,12 +1097,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -7279,15 +7262,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="45" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="46" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="53" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7313,6 +7287,15 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="52" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="45" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="46" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="34" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10127,125 +10110,125 @@
     </row>
     <row r="24" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="21"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="71"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="68"/>
     </row>
     <row r="25" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="71"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
     </row>
     <row r="26" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="22">
         <v>0</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="71"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="68"/>
     </row>
     <row r="27" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="71"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="68"/>
     </row>
     <row r="28" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="62" t="s">
+      <c r="G28" s="70"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="62" t="s">
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="62" t="s">
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="65" t="s">
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="66"/>
+      <c r="S28" s="63"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -10312,8 +10295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-设备表.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-设备表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\kelly0917\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734BEA4-98C0-48C2-95CB-80B3964D47C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973CBB67-0FE8-43C1-86E3-A022157CB945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1065" windowWidth="27150" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9465" yWindow="1410" windowWidth="19200" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面 " sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <definedName name="T_Desc" localSheetId="1">次页!$C$5</definedName>
     <definedName name="T_Unit" localSheetId="1">次页!$F$5</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>中国石油工程建设有限公司</t>
   </si>
@@ -212,99 +212,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>区域性阴极保护阴极保护电源设备</t>
-  </si>
-  <si>
-    <r>
-      <t>阴极保护电源设备，高频开关恒电位仪，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AC 380V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，空冷型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IP31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，室内，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>30A</t>
-    </r>
-  </si>
-  <si>
-    <t>套</t>
-  </si>
-  <si>
-    <t>FECPS000002</t>
-  </si>
-  <si>
-    <t>CDP-S-OGP-AC-010-2014-2</t>
   </si>
 </sst>
 </file>
@@ -7132,6 +7039,77 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="52" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="34" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="32" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="47" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="28" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="42" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="48" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="22" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="13" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="49" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="53" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="45" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="46" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1292" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7261,77 +7239,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="53" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="52" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="45" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="46" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="34" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="32" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="47" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="28" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="42" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="48" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="22" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="13" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="49" xfId="1004" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9645,590 +9552,590 @@
     <row r="2" spans="1:19" ht="27.95" customHeight="1">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="72" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19" ht="27.95" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="75" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
     </row>
     <row r="4" spans="1:19" ht="27.95" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="75" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" s="77"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
     </row>
     <row r="5" spans="1:19" ht="27.75" customHeight="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="44" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" ht="27.95" customHeight="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="75" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="7" spans="1:19" ht="27.95" customHeight="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="75" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="8" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="55"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="74"/>
     </row>
     <row r="9" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
     </row>
     <row r="10" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
     </row>
     <row r="11" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="77"/>
     </row>
     <row r="12" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
     </row>
     <row r="13" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
     </row>
     <row r="14" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
     </row>
     <row r="15" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
     </row>
     <row r="16" spans="1:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="58"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="77"/>
     </row>
     <row r="17" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="77"/>
     </row>
     <row r="18" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
     </row>
     <row r="19" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
     </row>
     <row r="20" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="58"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="77"/>
     </row>
     <row r="21" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
     </row>
     <row r="22" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
     </row>
     <row r="23" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="61"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="80"/>
     </row>
     <row r="24" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="21"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="68"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="68"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="25"/>
     </row>
     <row r="26" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="22">
         <v>0</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="68"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="68"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="2:19" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="69" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="69" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="69" t="s">
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="69" t="s">
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="62" t="s">
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="63"/>
+      <c r="S28" s="39"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -10239,18 +10146,23 @@
     <protectedRange sqref="B25:S25 B26:E26 R26:S26" name="区域1_2_1"/>
   </protectedRanges>
   <mergeCells count="41">
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P4"/>
+    <mergeCell ref="F5:P7"/>
+    <mergeCell ref="B8:S23"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -10263,23 +10175,18 @@
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P4"/>
-    <mergeCell ref="F5:P7"/>
-    <mergeCell ref="B8:S23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
   </mergeCells>
   <phoneticPr fontId="114" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.70866141732283472" bottom="0.39370078740157483" header="1.9685039370078743" footer="0.31496062992125984"/>
@@ -10295,8 +10202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -10427,33 +10334,19 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="27" customHeight="1">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -10462,9 +10355,7 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:20" ht="27" customHeight="1">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
@@ -10485,9 +10376,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:20" ht="27" customHeight="1">
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
